--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_220__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_220__Reeval_LHS_Modell_1.1.xlsx
@@ -5876,19 +5876,19 @@
                   <c:v>7.143638610839844</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.33752632141113</c:v>
+                  <c:v>29.33752822875977</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.966116905212402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.414766311645508</c:v>
+                  <c:v>9.414767265319824</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>41.0139274597168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.86930656433105</c:v>
+                  <c:v>27.86930274963379</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>33.37481689453125</c:v>
@@ -5897,10 +5897,10 @@
                   <c:v>22.08657646179199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.975173950195312</c:v>
+                  <c:v>6.975176334381104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.009514808654785</c:v>
+                  <c:v>8.009511947631836</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>29.48966026306152</c:v>
@@ -5912,37 +5912,37 @@
                   <c:v>10.54147720336914</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.71274566650391</c:v>
+                  <c:v>19.71274948120117</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>29.70505905151367</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.865091323852539</c:v>
+                  <c:v>8.865089416503906</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>21.11721611022949</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.54628562927246</c:v>
+                  <c:v>19.54628372192383</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.849865913391113</c:v>
+                  <c:v>1.849868178367615</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.76832962036133</c:v>
+                  <c:v>22.76833534240723</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>25.89095878601074</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20.66714668273926</c:v>
+                  <c:v>20.66715049743652</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.53418731689453</c:v>
+                  <c:v>29.53418922424316</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.66916847229004</c:v>
+                  <c:v>27.66917037963867</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-2.356769800186157</c:v>
@@ -5954,7 +5954,7 @@
                   <c:v>7.733268260955811</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.03619384765625</c:v>
+                  <c:v>9.036196708679199</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>29.57239532470703</c:v>
@@ -5963,37 +5963,37 @@
                   <c:v>8.043003082275391</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.765061378479</c:v>
+                  <c:v>13.76506042480469</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>11.54413318634033</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.89555072784424</c:v>
+                  <c:v>14.89554977416992</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.68246078491211</c:v>
+                  <c:v>16.68246459960938</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>22.49920272827148</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>27.88702774047852</c:v>
+                  <c:v>27.88702964782715</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-6.219444274902344</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>19.63450622558594</c:v>
+                  <c:v>19.63450241088867</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>3.990168571472168</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14.96095657348633</c:v>
+                  <c:v>14.9609546661377</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12.01639366149902</c:v>
+                  <c:v>12.01639461517334</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>36.43512725830078</c:v>
@@ -6002,22 +6002,22 @@
                   <c:v>26.78442001342773</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.39675521850586</c:v>
+                  <c:v>18.39675903320312</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>24.29393577575684</c:v>
+                  <c:v>24.2939338684082</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.944095134735107</c:v>
+                  <c:v>7.944097518920898</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12.50969123840332</c:v>
+                  <c:v>12.509690284729</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>20.20107460021973</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18.76156616210938</c:v>
+                  <c:v>18.76156806945801</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>19.5026798248291</c:v>
@@ -6029,10 +6029,10 @@
                   <c:v>8.611565589904785</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.74721908569336</c:v>
+                  <c:v>19.74722480773926</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10.29790019989014</c:v>
+                  <c:v>10.2978982925415</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>17.98095703125</c:v>
@@ -6041,31 +6041,31 @@
                   <c:v>25.29123306274414</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.826372623443604</c:v>
+                  <c:v>6.826375007629395</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>34.65935516357422</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.596896171569824</c:v>
+                  <c:v>9.596897125244141</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>29.29782867431641</c:v>
+                  <c:v>29.29783058166504</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>14.99413204193115</c:v>
+                  <c:v>14.99413299560547</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>24.5128345489502</c:v>
+                  <c:v>24.51283645629883</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>20.44075012207031</c:v>
+                  <c:v>20.44075202941895</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>32.53071594238281</c:v>
+                  <c:v>32.53071975708008</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.141477584838867</c:v>
+                  <c:v>4.141475200653076</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>16.25947570800781</c:v>
@@ -6074,25 +6074,25 @@
                   <c:v>23.48594093322754</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>13.18261814117432</c:v>
+                  <c:v>13.18261909484863</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>13.87100601196289</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>18.75415229797363</c:v>
+                  <c:v>18.754150390625</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>23.31563758850098</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>16.07297515869141</c:v>
+                  <c:v>16.07297706604004</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>3.094338178634644</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>13.44999599456787</c:v>
+                  <c:v>13.4499979019165</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>27.25515365600586</c:v>
@@ -6101,19 +6101,19 @@
                   <c:v>21.65121078491211</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.811038494110107</c:v>
+                  <c:v>6.811036109924316</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>14.1929759979248</c:v>
+                  <c:v>14.19297885894775</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>17.94368362426758</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>16.79595756530762</c:v>
+                  <c:v>16.79595947265625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11.36074066162109</c:v>
+                  <c:v>11.36074352264404</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>11.64869022369385</c:v>
@@ -6125,28 +6125,28 @@
                   <c:v>18.49275588989258</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.638007164001465</c:v>
+                  <c:v>8.638009071350098</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>22.23793029785156</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>15.60713863372803</c:v>
+                  <c:v>15.60713958740234</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>31.28565788269043</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>14.92563247680664</c:v>
+                  <c:v>14.92563056945801</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.45668983459473</c:v>
+                  <c:v>11.45669364929199</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>16.35771369934082</c:v>
+                  <c:v>16.35771179199219</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>11.65804386138916</c:v>
+                  <c:v>11.65804100036621</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>11.78944110870361</c:v>
@@ -6158,10 +6158,10 @@
                   <c:v>0.6977230906486511</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>31.1464729309082</c:v>
+                  <c:v>31.14646911621094</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>16.34297943115234</c:v>
+                  <c:v>16.34297752380371</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>14.95074939727783</c:v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>29.33752632141113</v>
+        <v>29.33752822875977</v>
       </c>
       <c r="G3">
         <v>78</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>9.414766311645508</v>
+        <v>9.414767265319824</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.86930656433105</v>
+        <v>27.86930274963379</v>
       </c>
       <c r="G7">
         <v>78</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6.975173950195312</v>
+        <v>6.975176334381104</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>8.009514808654785</v>
+        <v>8.009511947631836</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.71274566650391</v>
+        <v>19.71274948120117</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>8.865091323852539</v>
+        <v>8.865089416503906</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>19.54628562927246</v>
+        <v>19.54628372192383</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>1.849865913391113</v>
+        <v>1.849868178367615</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.76832962036133</v>
+        <v>22.76833534240723</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.66714668273926</v>
+        <v>20.66715049743652</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.53418731689453</v>
+        <v>29.53418922424316</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.66916847229004</v>
+        <v>27.66917037963867</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>9.03619384765625</v>
+        <v>9.036196708679199</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>13.765061378479</v>
+        <v>13.76506042480469</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>14.89555072784424</v>
+        <v>14.89554977416992</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>16.68246078491211</v>
+        <v>16.68246459960938</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>27.88702774047852</v>
+        <v>27.88702964782715</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>19.63450622558594</v>
+        <v>19.63450241088867</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>14.96095657348633</v>
+        <v>14.9609546661377</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>12.01639366149902</v>
+        <v>12.01639461517334</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>18.39675521850586</v>
+        <v>18.39675903320312</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>24.29393577575684</v>
+        <v>24.2939338684082</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>7.944095134735107</v>
+        <v>7.944097518920898</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>12.50969123840332</v>
+        <v>12.509690284729</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>18.76156616210938</v>
+        <v>18.76156806945801</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>19.74721908569336</v>
+        <v>19.74722480773926</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>10.29790019989014</v>
+        <v>10.2978982925415</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>6.826372623443604</v>
+        <v>6.826375007629395</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>9.596896171569824</v>
+        <v>9.596897125244141</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>29.29782867431641</v>
+        <v>29.29783058166504</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>14.99413204193115</v>
+        <v>14.99413299560547</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>24.5128345489502</v>
+        <v>24.51283645629883</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>20.44075012207031</v>
+        <v>20.44075202941895</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>32.53071594238281</v>
+        <v>32.53071975708008</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>4.141477584838867</v>
+        <v>4.141475200653076</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>13.18261814117432</v>
+        <v>13.18261909484863</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>18.75415229797363</v>
+        <v>18.754150390625</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>16.07297515869141</v>
+        <v>16.07297706604004</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>13.44999599456787</v>
+        <v>13.4499979019165</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>6.811038494110107</v>
+        <v>6.811036109924316</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>14.1929759979248</v>
+        <v>14.19297885894775</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>16.79595756530762</v>
+        <v>16.79595947265625</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>11.36074066162109</v>
+        <v>11.36074352264404</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>8.638007164001465</v>
+        <v>8.638009071350098</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>15.60713863372803</v>
+        <v>15.60713958740234</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>14.92563247680664</v>
+        <v>14.92563056945801</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>11.45668983459473</v>
+        <v>11.45669364929199</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>16.35771369934082</v>
+        <v>16.35771179199219</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>11.65804386138916</v>
+        <v>11.65804100036621</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>31.1464729309082</v>
+        <v>31.14646911621094</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>16.34297943115234</v>
+        <v>16.34297752380371</v>
       </c>
     </row>
     <row r="99" spans="1:6">
